--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,7 +448,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
